--- a/HYSYS_Props.xlsx
+++ b/HYSYS_Props.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\83 PhD IITD\CLL761\2_Assignments\TermProject_Flash\DataBank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\83 PhD IITD\CLL761\2_Assignments\CLL_761TermProject_Flash\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5AF400-0EF0-47CE-B335-28A4D86B0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D70B1-698B-4844-B3AA-D1347311A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1050" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{CED674F5-67EB-4F0E-8693-A53D99924727}"/>
+    <workbookView xWindow="5805" yWindow="465" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{CED674F5-67EB-4F0E-8693-A53D99924727}"/>
   </bookViews>
   <sheets>
     <sheet name="kij" sheetId="1" r:id="rId1"/>
     <sheet name="Cp_ideal" sheetId="3" r:id="rId2"/>
     <sheet name="criticalProp" sheetId="2" r:id="rId3"/>
+    <sheet name="heatFormation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="87">
   <si>
     <t>Benzene</t>
   </si>
@@ -285,6 +286,9 @@
   </si>
   <si>
     <t>component</t>
+  </si>
+  <si>
+    <t>Hf, kJ/kgmol</t>
   </si>
 </sst>
 </file>
@@ -16790,7 +16794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D1946-485D-43A4-A214-2842B3497190}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -18487,9 +18491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537F3B3-BC33-431A-8D2C-9CDEEF6F7A09}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -20175,4 +20177,603 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C0D550-53E3-40F5-B855-9B2F679105FC}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>82977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-74900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-84738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-103890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-126190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-134590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-146490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-154590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-167290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-187890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-208590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-229190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-249790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-231456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-235224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-233717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-229190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-232090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-225890</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-217590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-216590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-224290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-220290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-215090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-211289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-213090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-220290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-222790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-219590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-214089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-224890</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-210990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-212190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-212790</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-215590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-204890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-201690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-202090</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-199390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-206290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-189790</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-192390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-195090</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-177890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-185690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-171690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-174390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-166090</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-664200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-643500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-622800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-602100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-581400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-560700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-540000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-519200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-498500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-477800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-456080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-435390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-414780</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-394190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-373590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-352990</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-332290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-311690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-291090</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-270490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>